--- a/excel/hero_level.xlsx
+++ b/excel/hero_level.xlsx
@@ -5,11 +5,11 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zkb/gopath/src/gogame/src/xls_tools/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zkb/github.com/zkbcoder/xls_tools/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="500" yWindow="4460" windowWidth="21960" windowHeight="12440"/>
+    <workbookView xWindow="1900" yWindow="4060" windowWidth="21960" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -103,118 +103,18 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-英雄血量</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-英雄伤害</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-获得技能点</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-消耗的游戏币</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>stage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_point</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -293,14 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"reward":{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -312,15 +204,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dmg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rq_gold</t>
+    <t>"reward":[{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,9 +275,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -691,27 +582,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="E13" sqref="E13:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -720,194 +607,187 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>12</v>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+    <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
         <f>B5*10000+C5*100+D5</f>
         <v>10100</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
-        <v>100</v>
-      </c>
-      <c r="F5" s="5">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="E5" s="4">
         <v>1001</v>
       </c>
-      <c r="J5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4">
         <v>201</v>
       </c>
-      <c r="L5" s="5">
-        <v>2</v>
-      </c>
-      <c r="M5" s="5">
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4">
         <v>99</v>
       </c>
-      <c r="N5" s="5">
-        <v>1</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>15</v>
+      <c r="M5" s="4">
+        <v>201</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6">
-        <f t="shared" ref="A6:A8" si="0">B6*10000+C6*100+D6</f>
+        <f>B6*10000+C6*100+D6</f>
         <v>10101</v>
       </c>
       <c r="B6">
@@ -919,46 +799,43 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>110</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>110</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="E6" s="4">
         <v>1001</v>
       </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4">
         <v>201</v>
       </c>
-      <c r="L6" s="5">
-        <v>2</v>
-      </c>
-      <c r="M6" s="5">
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4">
         <v>99</v>
       </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>15</v>
+      <c r="M6" s="4">
+        <v>201</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f>B7*10000+C7*100+D7</f>
         <v>10102</v>
       </c>
       <c r="B7">
@@ -970,46 +847,43 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7">
-        <v>120</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>120</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="E7" s="4">
         <v>1001</v>
       </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="4">
         <v>201</v>
       </c>
-      <c r="L7" s="5">
-        <v>2</v>
-      </c>
-      <c r="M7" s="5">
+      <c r="K7" s="4">
+        <v>2</v>
+      </c>
+      <c r="L7" s="4">
         <v>99</v>
       </c>
-      <c r="N7" s="5">
-        <v>1</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>15</v>
+      <c r="M7" s="4">
+        <v>201</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4">
+        <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8">
-        <f t="shared" si="0"/>
+        <f>B8*10000+C8*100+D8</f>
         <v>10103</v>
       </c>
       <c r="B8">
@@ -1021,41 +895,38 @@
       <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8">
-        <v>130</v>
-      </c>
-      <c r="F8">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>130</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="E8" s="4">
         <v>1001</v>
       </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="5">
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="4">
         <v>201</v>
       </c>
-      <c r="L8" s="5">
-        <v>2</v>
-      </c>
-      <c r="M8" s="5">
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
         <v>99</v>
       </c>
-      <c r="N8" s="5">
-        <v>1</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>15</v>
+      <c r="M8" s="4">
+        <v>201</v>
+      </c>
+      <c r="N8" s="4">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/excel/hero_level.xlsx
+++ b/excel/hero_level.xlsx
@@ -158,10 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试</t>
     <rPh sb="0" eb="1">
       <t>ce s</t>
@@ -169,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>param</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,6 +205,14 @@
   </si>
   <si>
     <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,7 +585,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13:E14"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -616,19 +616,19 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
@@ -637,12 +637,12 @@
         <v>7</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -652,7 +652,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -687,7 +687,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>4</v>
@@ -714,7 +714,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -723,18 +723,18 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -761,10 +761,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J5" s="4">
         <v>201</v>
@@ -809,10 +809,10 @@
         <v>1</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J6" s="4">
         <v>201</v>
@@ -857,10 +857,10 @@
         <v>1</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J7" s="4">
         <v>201</v>
@@ -905,10 +905,10 @@
         <v>1</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="J8" s="4">
         <v>201</v>
